--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D25_R75_Pentropia.xlsx
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.596499</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -751,7 +751,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.597521</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -843,7 +843,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.597521</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -870,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -884,11 +884,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -925,13 +925,17 @@
         <v>1.197242897161091</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5931264066149118</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>189</v>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.600507</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -958,7 +962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -972,7 +976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -1016,14 +1020,14 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5931264066149118</v>
+        <v>0.4716931457088545</v>
       </c>
       <c r="Y6" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.601496</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1064,7 +1068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1108,14 +1112,14 @@
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.5607344153798228</v>
       </c>
       <c r="Y7" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.602504</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1156,7 +1160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1197,17 +1201,17 @@
         <v>0.7689369834685948</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5607344153798228</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y8" t="n">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.602504</t>
+          <t>2025-11-13T06:53:26.256139</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1234,7 +1238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1248,11 +1252,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1289,17 +1293,13 @@
         <v>0.565934160759906</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.5389569866079409</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.603495</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1326,7 +1326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1340,11 +1340,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1381,13 +1381,17 @@
         <v>0.4724547184104888</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>43</v>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.604493</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1414,7 +1418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1428,11 +1432,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1469,13 +1473,17 @@
         <v>0.6063567011997875</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4397431363068345</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>131</v>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.604493</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1502,7 +1510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1516,11 +1524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1557,17 +1565,13 @@
         <v>0.7963035536184746</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.605492</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1594,7 +1598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1608,11 +1612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -1655,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.605492</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1696,7 +1700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1737,17 +1741,17 @@
         <v>0.4762189110543383</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4397431363068345</v>
+        <v>0.4244175909401347</v>
       </c>
       <c r="Y14" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.606493</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1788,7 +1792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1829,13 +1833,17 @@
         <v>0.9492555011587358</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5049512863264476</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>184</v>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.607491</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1876,7 +1884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1920,14 +1928,14 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4244175909401347</v>
+        <v>0.4062858371373469</v>
       </c>
       <c r="Y16" t="n">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.607491</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1954,7 +1962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1968,11 +1976,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -2009,13 +2017,17 @@
         <v>0.6071221040922388</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>87</v>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.608491</t>
+          <t>2025-11-13T06:53:26.257140</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2056,7 +2068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2097,17 +2109,17 @@
         <v>0.7384564301946922</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.5049512863264476</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y18" t="n">
         <v>235</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.608491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2148,7 +2160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2189,17 +2201,13 @@
         <v>0.7254466454162998</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.4062858371373469</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.609491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2240,7 +2248,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2281,17 +2289,13 @@
         <v>0.5366666442391517</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.5045465658763988</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.609491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2332,7 +2336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2373,17 +2377,17 @@
         <v>1.63291695168986</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5173502331327696</v>
       </c>
       <c r="Y21" t="n">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.609491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2414,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2424,7 +2428,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2465,13 +2469,17 @@
         <v>1.556452151167592</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.4918497783931735</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.610492</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2498,7 +2506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2512,11 +2520,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2559,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.610492</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2586,7 +2594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2600,11 +2608,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2641,13 +2649,17 @@
         <v>0.4610806068690793</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4880304987479203</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>94</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.610492</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2674,7 +2686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2688,11 +2700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2729,13 +2741,17 @@
         <v>0.6669065748680236</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.4130103185970559</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>97</v>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.611491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2776,7 +2792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2817,17 +2833,13 @@
         <v>0.4251779337591775</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5173502331327696</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.611491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2854,7 +2866,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2868,11 +2880,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2909,17 +2921,13 @@
         <v>0.5295897370539744</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.4918497783931735</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.611491</t>
+          <t>2025-11-13T06:53:26.258139</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2954,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2960,7 +2968,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -3004,14 +3012,14 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4880304987479203</v>
+        <v>0.5079682182603347</v>
       </c>
       <c r="Y28" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.611491</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3052,7 +3060,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
@@ -3096,14 +3104,14 @@
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.439768480817761</v>
       </c>
       <c r="Y29" t="n">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.612491</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3144,7 +3152,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3185,13 +3193,17 @@
         <v>0.563605452362953</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4544264498769271</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>52</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.612491</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3232,7 +3244,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3273,17 +3285,13 @@
         <v>0.4591138261873131</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.5079682182603347</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.612491</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -3310,7 +3318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3324,11 +3332,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -3365,17 +3373,13 @@
         <v>0.5895853455887972</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.439768480817761</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.613493</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3402,7 +3406,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3416,11 +3420,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -3457,17 +3461,13 @@
         <v>0.6887145520914726</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.613493</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3549,13 +3549,17 @@
         <v>0.5708689494899546</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.5636029531844986</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>265</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.613493</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3586,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3596,7 +3600,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
@@ -3640,14 +3644,14 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.5636029531844986</v>
+        <v>0.5248708096267587</v>
       </c>
       <c r="Y35" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.614492</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3678,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3688,7 +3692,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3729,17 +3733,17 @@
         <v>1.129323681769551</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.5248708096267587</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y36" t="n">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.614492</t>
+          <t>2025-11-13T06:53:26.259140</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3780,7 +3784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3821,17 +3825,13 @@
         <v>0.6155250963043311</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.614492</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3919,7 +3919,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.617493</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
@@ -4001,13 +4001,17 @@
         <v>0.8968347433740986</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.5815132947852186</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>144</v>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.618494</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4048,7 +4052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4089,17 +4093,13 @@
         <v>0.9500553105799605</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.5815132947852186</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.619497</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
@@ -4181,13 +4181,17 @@
         <v>0.6599859154060479</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5789654700855298</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>117</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.619497</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4214,7 +4218,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4228,11 +4232,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -4269,13 +4273,17 @@
         <v>1.220443805990061</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5943424190778207</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>47</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.620495</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4310,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4316,7 +4324,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
@@ -4357,17 +4365,17 @@
         <v>0.8117069487144604</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y43" t="n">
         <v>106</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.620495</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4402,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4408,7 +4416,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4449,17 +4457,13 @@
         <v>1.356024133300608</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.5943424190778207</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.620495</t>
+          <t>2025-11-13T06:53:26.260139</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4490,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4500,7 +4504,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4541,17 +4545,13 @@
         <v>1.144707638335225</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.5325044568707964</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.262413</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4578,7 +4578,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4592,11 +4592,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -4639,7 +4639,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.263412</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4666,7 +4666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4680,11 +4680,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -4727,7 +4727,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.263412</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.263412</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4846,7 +4846,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4860,11 +4860,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -4901,13 +4901,17 @@
         <v>0.7026513287641249</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.5122486851695403</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>152</v>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.264568</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4934,7 +4938,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4948,11 +4952,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -4989,17 +4993,13 @@
         <v>0.8900920720162673</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.5122486851695403</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.621493</t>
+          <t>2025-11-13T06:53:26.264568</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -5026,7 +5026,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5040,11 +5040,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -5081,13 +5081,17 @@
         <v>0.4867357411434644</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.4013904261062382</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>97</v>
+      </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.622490</t>
+          <t>2025-11-13T06:53:26.264568</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -5114,7 +5118,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5128,11 +5132,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -5169,17 +5173,13 @@
         <v>0.9007459825007811</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.4013904261062382</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.622490</t>
+          <t>2025-11-13T06:53:26.264568</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -5206,7 +5206,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5220,11 +5220,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -5261,17 +5261,13 @@
         <v>0.6876839127215721</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.5947511037682918</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.622490</t>
+          <t>2025-11-13T06:53:26.265569</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5312,7 +5308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
@@ -5356,14 +5352,14 @@
         <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5193700315892974</v>
+        <v>0.5947511037682918</v>
       </c>
       <c r="Y54" t="n">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.622490</t>
+          <t>2025-11-13T06:53:26.265569</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5404,7 +5400,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
@@ -5445,17 +5441,17 @@
         <v>0.5276651422719383</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5785117996979956</v>
+        <v>0.5193700315892974</v>
       </c>
       <c r="Y55" t="n">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.622490</t>
+          <t>2025-11-13T06:53:26.265569</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -5482,7 +5478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5496,11 +5492,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -5537,17 +5533,13 @@
         <v>0.8036450389442737</v>
       </c>
       <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4031272813482388</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.265569</t>
         </is>
       </c>
     </row>
@@ -5574,7 +5566,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5588,7 +5580,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5629,13 +5621,17 @@
         <v>0.5161643236593734</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.5785117996979956</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>17</v>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.265569</t>
         </is>
       </c>
     </row>
@@ -5652,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5662,7 +5658,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5676,11 +5672,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -5717,13 +5713,17 @@
         <v>0.62023976883999</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.4031272813482388</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>219</v>
+      </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.266567</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5750,7 +5750,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5764,11 +5764,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -5811,7 +5811,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.266567</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.266567</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.623489</t>
+          <t>2025-11-13T06:53:26.266567</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -6022,7 +6022,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -6036,11 +6036,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="b">
         <v>1</v>
@@ -6083,7 +6083,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:31.624489</t>
+          <t>2025-11-13T06:53:26.266567</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6165,17 +6165,17 @@
         <v>1.119077545976042</v>
       </c>
       <c r="W63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5116586907214196</v>
+        <v>0.44744981749936</v>
       </c>
       <c r="Y63" t="n">
         <v>173</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.586625</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6257,17 +6257,17 @@
         <v>1.033736369007372</v>
       </c>
       <c r="W64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y64" t="n">
         <v>127</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.586625</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -6294,7 +6294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6308,11 +6308,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -6349,17 +6349,13 @@
         <v>1.773696780297943</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.444853861892112</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.586625</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6372,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -6386,7 +6382,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6400,11 +6396,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="b">
         <v>1</v>
@@ -6441,17 +6437,13 @@
         <v>0.4948237677607339</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.449858445829775</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6478,7 +6470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6492,7 +6484,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6533,17 +6525,17 @@
         <v>0.6657736596480259</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X67" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y67" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6562,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6584,7 +6576,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6625,17 +6617,17 @@
         <v>0.7640334399602504</v>
       </c>
       <c r="W68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.516137324287291</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y68" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.704182</t>
         </is>
       </c>
     </row>
@@ -6662,7 +6654,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6676,7 +6668,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6720,14 +6712,14 @@
         <v>3</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.5995480970097884</v>
       </c>
       <c r="Y69" t="n">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6746,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6768,7 +6760,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6809,17 +6801,17 @@
         <v>0.8425382640920499</v>
       </c>
       <c r="W70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X70" t="n">
-        <v>0.5675420211814656</v>
+        <v>0.516137324287291</v>
       </c>
       <c r="Y70" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6860,7 +6852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6901,17 +6893,17 @@
         <v>0.8048479379670812</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y71" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.587624</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -6938,7 +6930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6952,7 +6944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6993,17 +6985,17 @@
         <v>0.9460728933438172</v>
       </c>
       <c r="W72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X72" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y72" t="n">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7030,7 +7022,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -7044,7 +7036,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7085,17 +7077,17 @@
         <v>0.5869306382137591</v>
       </c>
       <c r="W73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.5726206851751187</v>
       </c>
       <c r="Y73" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7122,7 +7114,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7136,7 +7128,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7177,17 +7169,17 @@
         <v>0.6210804442107023</v>
       </c>
       <c r="W74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y74" t="n">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7206,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7228,7 +7220,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7269,17 +7261,17 @@
         <v>0.7149355969165425</v>
       </c>
       <c r="W75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X75" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y75" t="n">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7306,7 +7298,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7320,7 +7312,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7361,17 +7353,17 @@
         <v>0.7059830910348973</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4770833005079832</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y76" t="n">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7412,7 +7404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7453,17 +7445,17 @@
         <v>0.6155094911400287</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X77" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y77" t="n">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.588619</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7490,7 +7482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7504,7 +7496,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7545,17 +7537,17 @@
         <v>0.7753100506171211</v>
       </c>
       <c r="W78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X78" t="n">
-        <v>0.5327003538216112</v>
+        <v>0.4770833005079832</v>
       </c>
       <c r="Y78" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.705186</t>
         </is>
       </c>
     </row>
@@ -7582,7 +7574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7596,7 +7588,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7637,17 +7629,17 @@
         <v>0.4427605068414482</v>
       </c>
       <c r="W79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5924894589884222</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y79" t="n">
         <v>120</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7688,7 +7680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7732,14 +7724,14 @@
         <v>5</v>
       </c>
       <c r="X80" t="n">
-        <v>0.4971227507172453</v>
+        <v>0.5327003538216112</v>
       </c>
       <c r="Y80" t="n">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7780,7 +7772,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7821,17 +7813,17 @@
         <v>0.6572826029690271</v>
       </c>
       <c r="W81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.5005358046457723</v>
       </c>
       <c r="Y81" t="n">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7850,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7872,7 +7864,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
@@ -7913,17 +7905,17 @@
         <v>0.7087659705256109</v>
       </c>
       <c r="W82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X82" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y82" t="n">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7942,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7964,7 +7956,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
@@ -8005,17 +7997,17 @@
         <v>0.7512071195336931</v>
       </c>
       <c r="W83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X83" t="n">
-        <v>0.4895566329146183</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y83" t="n">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.589618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8034,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -8056,7 +8048,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8097,17 +8089,17 @@
         <v>0.5177146330087358</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X84" t="n">
-        <v>0.5284063292308575</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y84" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -8134,7 +8126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8148,11 +8140,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="b">
         <v>1</v>
@@ -8189,17 +8181,13 @@
         <v>0.4599930137789335</v>
       </c>
       <c r="W85" t="n">
-        <v>1</v>
-      </c>
-      <c r="X85" t="n">
-        <v>0.5045465658763988</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8240,7 +8228,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
@@ -8281,17 +8269,17 @@
         <v>0.6856461773337781</v>
       </c>
       <c r="W86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X86" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.473293756916572</v>
       </c>
       <c r="Y86" t="n">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8296,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8318,7 +8306,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8332,11 +8320,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8373,17 +8361,13 @@
         <v>0.4969345547809529</v>
       </c>
       <c r="W87" t="n">
-        <v>3</v>
-      </c>
-      <c r="X87" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8410,7 +8394,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8424,7 +8408,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8465,17 +8449,17 @@
         <v>0.4800473587864114</v>
       </c>
       <c r="W88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X88" t="n">
-        <v>0.561900209227943</v>
+        <v>0.5284063292308575</v>
       </c>
       <c r="Y88" t="n">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8486,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8516,7 +8500,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8557,7 +8541,7 @@
         <v>0.7181990449565681</v>
       </c>
       <c r="W89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X89" t="n">
         <v>0.4557742705184364</v>
@@ -8567,7 +8551,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.590618</t>
+          <t>2025-11-13T06:53:26.706182</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8578,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8608,7 +8592,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
@@ -8649,17 +8633,17 @@
         <v>0.7944742384091354</v>
       </c>
       <c r="W90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X90" t="n">
-        <v>0.5964336686658871</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y90" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:32.591618</t>
+          <t>2025-11-13T06:53:26.707182</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8670,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8700,7 +8684,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8741,17 +8725,17 @@
         <v>0.9750169425434201</v>
       </c>
       <c r="W91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X91" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.501762815367752</v>
       </c>
       <c r="Y91" t="n">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8762,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8792,7 +8776,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8836,14 +8820,14 @@
         <v>8</v>
       </c>
       <c r="X92" t="n">
-        <v>0.4971227507172453</v>
+        <v>0.5383790395385386</v>
       </c>
       <c r="Y92" t="n">
         <v>249</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8854,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8884,7 +8868,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8925,17 +8909,17 @@
         <v>0.732991578811016</v>
       </c>
       <c r="W93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4048631932862908</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y93" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -8962,7 +8946,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8976,7 +8960,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -9017,7 +9001,7 @@
         <v>0.9067899663125327</v>
       </c>
       <c r="W94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X94" t="n">
         <v>0.4521658349660818</v>
@@ -9027,7 +9011,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9054,7 +9038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9068,7 +9052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9109,7 +9093,7 @@
         <v>0.5953090337387388</v>
       </c>
       <c r="W95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X95" t="n">
         <v>0.5153807769252718</v>
@@ -9119,7 +9103,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9146,7 +9130,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9160,7 +9144,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9201,7 +9185,7 @@
         <v>1.111523261036602</v>
       </c>
       <c r="W96" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X96" t="n">
         <v>0.497348430591891</v>
@@ -9211,7 +9195,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9228,7 +9212,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -9238,7 +9222,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9252,11 +9236,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="b">
         <v>1</v>
@@ -9293,13 +9277,17 @@
         <v>0.9250629792966777</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.471259567615395</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>16</v>
+      </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9314,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9340,7 +9328,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
@@ -9381,17 +9369,17 @@
         <v>1.051269297673441</v>
       </c>
       <c r="W98" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4868788731020857</v>
       </c>
       <c r="Y98" t="n">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9406,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9432,7 +9420,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9473,17 +9461,17 @@
         <v>1.220501416715684</v>
       </c>
       <c r="W99" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X99" t="n">
-        <v>0.4868788731020857</v>
+        <v>0.5400715659945543</v>
       </c>
       <c r="Y99" t="n">
         <v>147</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9498,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9524,7 +9512,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9565,17 +9553,17 @@
         <v>0.8590588358088569</v>
       </c>
       <c r="W100" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.5947327673510634</v>
+        <v>0.561900209227943</v>
       </c>
       <c r="Y100" t="n">
         <v>147</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.101393</t>
         </is>
       </c>
     </row>
@@ -9602,7 +9590,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9616,7 +9604,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9657,17 +9645,17 @@
         <v>1.124144292333454</v>
       </c>
       <c r="W101" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X101" t="n">
-        <v>0.561900209227943</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y101" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9672,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -9694,7 +9682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9708,11 +9696,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="b">
         <v>1</v>
@@ -9749,13 +9737,17 @@
         <v>0.8148985523736818</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.5964336686658871</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>155</v>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -9782,7 +9774,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9796,7 +9788,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9837,17 +9829,17 @@
         <v>1.021847975276083</v>
       </c>
       <c r="W103" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X103" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.4321616102834998</v>
       </c>
       <c r="Y103" t="n">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -9874,7 +9866,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9888,7 +9880,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9929,17 +9921,17 @@
         <v>1.085344958086204</v>
       </c>
       <c r="W104" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X104" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y104" t="n">
         <v>85</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9948,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -9966,7 +9958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -9980,11 +9972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="b">
         <v>1</v>
@@ -10021,13 +10013,17 @@
         <v>0.8322467574054127</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.405083825348819</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>16</v>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.312270</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -10054,7 +10050,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -10068,7 +10064,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
@@ -10109,17 +10105,17 @@
         <v>1.059836498730935</v>
       </c>
       <c r="W106" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X106" t="n">
-        <v>0.510552993367098</v>
+        <v>0.4390485975596089</v>
       </c>
       <c r="Y106" t="n">
         <v>161</v>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:34.321786</t>
+          <t>2025-11-13T06:53:27.102393</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10160,7 +10156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10201,13 +10197,17 @@
         <v>0.7013959296429866</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.5361410903109534</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>63</v>
+      </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.650656</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10289,7 +10289,7 @@
         <v>0.8908868739198381</v>
       </c>
       <c r="W108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X108" t="n">
         <v>0.4186205535611799</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.650656</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
         <v>7</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -10326,7 +10326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10340,11 +10340,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="b">
         <v>1</v>
@@ -10381,13 +10381,17 @@
         <v>0.569885300190385</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.5443459042329746</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>137</v>
+      </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.651657</t>
         </is>
       </c>
     </row>
@@ -10414,7 +10418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10428,7 +10432,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10469,17 +10473,17 @@
         <v>0.6503980692854714</v>
       </c>
       <c r="W110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X110" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.5931264066149118</v>
       </c>
       <c r="Y110" t="n">
         <v>170</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.651657</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10520,7 +10524,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10561,17 +10565,17 @@
         <v>0.6405616827816828</v>
       </c>
       <c r="W111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X111" t="n">
-        <v>0.5939169255529118</v>
+        <v>0.4716931457088545</v>
       </c>
       <c r="Y111" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.651657</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10602,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10612,7 +10616,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10653,17 +10657,17 @@
         <v>0.6600898179225432</v>
       </c>
       <c r="W112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X112" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.571671760962744</v>
       </c>
       <c r="Y112" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.651657</t>
         </is>
       </c>
     </row>
@@ -10690,7 +10694,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10704,7 +10708,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="b">
@@ -10745,17 +10749,17 @@
         <v>1.135645039203016</v>
       </c>
       <c r="W113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X113" t="n">
-        <v>0.571671760962744</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y113" t="n">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.651657</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10786,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -10796,7 +10800,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="b">
@@ -10840,14 +10844,14 @@
         <v>3</v>
       </c>
       <c r="X114" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y114" t="n">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.652657</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -10888,7 +10892,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="b">
@@ -10929,17 +10933,17 @@
         <v>0.7342962869793561</v>
       </c>
       <c r="W115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X115" t="n">
-        <v>0.5797108377054159</v>
+        <v>0.4195344228012768</v>
       </c>
       <c r="Y115" t="n">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.652657</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10960,7 @@
         <v>7</v>
       </c>
       <c r="D116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -10966,7 +10970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -10980,11 +10984,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="b">
         <v>1</v>
@@ -11027,7 +11031,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.652657</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11058,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -11068,7 +11072,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="b">
@@ -11109,17 +11113,17 @@
         <v>0.5644644100213358</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X117" t="n">
-        <v>0.4698419149225322</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y117" t="n">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.652657</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11150,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11160,7 +11164,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="b">
@@ -11201,13 +11205,17 @@
         <v>0.5232940281677285</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.5800836114326661</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>69</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.653658</t>
         </is>
       </c>
     </row>
@@ -11234,7 +11242,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -11248,7 +11256,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="b">
@@ -11292,14 +11300,14 @@
         <v>2</v>
       </c>
       <c r="X119" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4609562516316058</v>
       </c>
       <c r="Y119" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.508276</t>
+          <t>2025-11-13T06:53:27.653658</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11334,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -11340,7 +11348,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="b">
@@ -11381,17 +11389,17 @@
         <v>0.7926263970528613</v>
       </c>
       <c r="W120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5800836114326661</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y120" t="n">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521438</t>
+          <t>2025-11-13T06:53:27.653658</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11426,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -11432,7 +11440,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="b">
@@ -11473,17 +11481,17 @@
         <v>1.468044065248698</v>
       </c>
       <c r="W121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X121" t="n">
-        <v>0.4609562516316058</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y121" t="n">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521438</t>
+          <t>2025-11-13T06:53:27.654662</t>
         </is>
       </c>
     </row>
@@ -11510,7 +11518,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -11524,7 +11532,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
@@ -11565,17 +11573,17 @@
         <v>0.9381170609033072</v>
       </c>
       <c r="W122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X122" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5964336686658871</v>
       </c>
       <c r="Y122" t="n">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521438</t>
+          <t>2025-11-13T06:53:27.654662</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11610,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -11616,7 +11624,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="b">
@@ -11660,14 +11668,14 @@
         <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5264611661187159</v>
       </c>
       <c r="Y123" t="n">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.654662</t>
         </is>
       </c>
     </row>
@@ -11694,7 +11702,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -11708,7 +11716,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="b">
@@ -11749,17 +11757,17 @@
         <v>0.5337236452678867</v>
       </c>
       <c r="W124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X124" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.5173502331327696</v>
       </c>
       <c r="Y124" t="n">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.656089</t>
         </is>
       </c>
     </row>
@@ -11786,7 +11794,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -11800,7 +11808,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="b">
@@ -11844,14 +11852,14 @@
         <v>2</v>
       </c>
       <c r="X125" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y125" t="n">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.656089</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11886,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -11892,7 +11900,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="b">
@@ -11933,13 +11941,17 @@
         <v>0.5734089082085867</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
-      </c>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>151</v>
+      </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.656089</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="D127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -11966,7 +11978,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -11980,11 +11992,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="b">
         <v>1</v>
@@ -12021,13 +12033,17 @@
         <v>0.9948523868583137</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.4130103185970559</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>26</v>
+      </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.657092</t>
         </is>
       </c>
     </row>
@@ -12054,7 +12070,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -12068,7 +12084,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L128" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="b">
@@ -12109,17 +12125,13 @@
         <v>0.5699517437641429</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.5290345580818899</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.657092</t>
         </is>
       </c>
     </row>
@@ -12146,7 +12158,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -12160,7 +12172,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="b">
@@ -12201,17 +12213,17 @@
         <v>0.630463931757729</v>
       </c>
       <c r="W129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X129" t="n">
-        <v>0.4744565533123486</v>
+        <v>0.4515883255430311</v>
       </c>
       <c r="Y129" t="n">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.657092</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12240,7 @@
         <v>7</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -12238,7 +12250,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -12252,11 +12264,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L130" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="b">
         <v>1</v>
@@ -12293,13 +12305,17 @@
         <v>0.4860756362507869</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
-      </c>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0.4646405864041511</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>63</v>
+      </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.657092</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12332,7 @@
         <v>7</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -12326,7 +12342,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -12340,11 +12356,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" t="b">
         <v>1</v>
@@ -12381,13 +12397,17 @@
         <v>0.7425983479296299</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.521406849537337</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>54</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.658091</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12434,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -12428,7 +12448,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="b">
@@ -12469,17 +12489,17 @@
         <v>0.5955703922659448</v>
       </c>
       <c r="W132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.4542698063547792</v>
+        <v>0.4161706652665431</v>
       </c>
       <c r="Y132" t="n">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.658091</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12526,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -12520,7 +12540,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="b">
@@ -12561,17 +12581,13 @@
         <v>0.6770517704898597</v>
       </c>
       <c r="W133" t="n">
-        <v>1</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.5122486851695403</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.658091</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12612,7 +12628,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="b">
@@ -12656,14 +12672,14 @@
         <v>3</v>
       </c>
       <c r="X134" t="n">
-        <v>0.4515883255430311</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y134" t="n">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.658091</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -12704,7 +12720,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="b">
@@ -12748,14 +12764,14 @@
         <v>2</v>
       </c>
       <c r="X135" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y135" t="n">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.658091</t>
         </is>
       </c>
     </row>
@@ -12782,7 +12798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -12796,7 +12812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="b">
@@ -12837,17 +12853,13 @@
         <v>0.5647458350415632</v>
       </c>
       <c r="W136" t="n">
-        <v>1</v>
-      </c>
-      <c r="X136" t="n">
-        <v>0.5049549320516779</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.659091</t>
         </is>
       </c>
     </row>
@@ -12874,7 +12886,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -12888,7 +12900,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="b">
@@ -12929,17 +12941,13 @@
         <v>0.5523585607211231</v>
       </c>
       <c r="W137" t="n">
-        <v>1</v>
-      </c>
-      <c r="X137" t="n">
-        <v>0.5878997883128378</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.659091</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12974,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -12980,7 +12988,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="b">
@@ -13021,13 +13029,17 @@
         <v>0.7361524450479638</v>
       </c>
       <c r="W138" t="n">
-        <v>0</v>
-      </c>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0.4807672342116082</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>142</v>
+      </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.659091</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13066,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -13068,7 +13080,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="b">
@@ -13109,17 +13121,17 @@
         <v>0.6851526894316705</v>
       </c>
       <c r="W139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X139" t="n">
-        <v>0.4636006949943728</v>
+        <v>0.4455870325083883</v>
       </c>
       <c r="Y139" t="n">
         <v>170</v>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.659091</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13158,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -13160,7 +13172,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="b">
@@ -13201,17 +13213,17 @@
         <v>0.445788419647514</v>
       </c>
       <c r="W140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X140" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.5789654700855298</v>
       </c>
       <c r="Y140" t="n">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.659091</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13250,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -13252,7 +13264,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="b">
@@ -13293,13 +13305,17 @@
         <v>1.192627095638432</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
-      </c>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0.5943424190778207</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>100</v>
+      </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.660089</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13342,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -13340,7 +13356,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="b">
@@ -13381,13 +13397,17 @@
         <v>0.7741430941828078</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
-      </c>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0.5422299064876035</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>165</v>
+      </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.660089</t>
         </is>
       </c>
     </row>
@@ -13414,7 +13434,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -13428,7 +13448,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="b">
@@ -13469,17 +13489,17 @@
         <v>0.4354897784826243</v>
       </c>
       <c r="W143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X143" t="n">
-        <v>0.4161706652665431</v>
+        <v>0.5995480970097884</v>
       </c>
       <c r="Y143" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.660089</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13526,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -13520,7 +13540,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="b">
@@ -13561,17 +13581,13 @@
         <v>0.6823598695137665</v>
       </c>
       <c r="W144" t="n">
-        <v>4</v>
-      </c>
-      <c r="X144" t="n">
-        <v>0.4168279929990098</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.660609</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -13612,7 +13628,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="b">
@@ -13653,17 +13669,17 @@
         <v>0.6941159092527329</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X145" t="n">
-        <v>0.4127116700572048</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y145" t="n">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.660609</t>
         </is>
       </c>
     </row>
@@ -13690,7 +13706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -13704,7 +13720,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="b">
@@ -13745,17 +13761,17 @@
         <v>0.786970523215486</v>
       </c>
       <c r="W146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X146" t="n">
-        <v>0.5943424190778207</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y146" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.661141</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -13796,7 +13812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="b">
@@ -13840,14 +13856,14 @@
         <v>3</v>
       </c>
       <c r="X147" t="n">
-        <v>0.5422299064876035</v>
+        <v>0.4795144042175045</v>
       </c>
       <c r="Y147" t="n">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-12T07:25:35.521965</t>
+          <t>2025-11-13T06:53:27.662296</t>
         </is>
       </c>
     </row>
